--- a/MultipleIP/15x15/compare2.xlsx
+++ b/MultipleIP/15x15/compare2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>P(Arrival)</t>
   </si>
@@ -23,9 +23,6 @@
     <t>Utilizations</t>
   </si>
   <si>
-    <t>LowerBd</t>
-  </si>
-  <si>
     <t>PerfectInfo</t>
   </si>
   <si>
@@ -38,12 +35,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Gap (%)</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
     <t>0.27</t>
   </si>
   <si>
@@ -53,57 +44,30 @@
     <t>0.19</t>
   </si>
   <si>
-    <t>32.7</t>
-  </si>
-  <si>
     <t>55.7</t>
   </si>
   <si>
-    <t>70.1</t>
-  </si>
-  <si>
     <t>54.1</t>
   </si>
   <si>
-    <t>65.3</t>
-  </si>
-  <si>
     <t>58.0</t>
   </si>
   <si>
-    <t>77.1</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
     <t>0.33</t>
   </si>
   <si>
     <t>0.23</t>
   </si>
   <si>
-    <t>39.8</t>
-  </si>
-  <si>
     <t>68.9</t>
   </si>
   <si>
-    <t>73.2</t>
-  </si>
-  <si>
     <t>63.3</t>
   </si>
   <si>
-    <t>59.1</t>
-  </si>
-  <si>
     <t>72.3</t>
   </si>
   <si>
-    <t>81.7</t>
-  </si>
-  <si>
     <t>0.38</t>
   </si>
   <si>
@@ -113,114 +77,60 @@
     <t>0.28</t>
   </si>
   <si>
-    <t>47.2</t>
-  </si>
-  <si>
     <t>82.0</t>
   </si>
   <si>
-    <t>73.8</t>
-  </si>
-  <si>
     <t>72.9</t>
   </si>
   <si>
-    <t>54.5</t>
-  </si>
-  <si>
     <t>86.1</t>
   </si>
   <si>
-    <t>82.5</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
     <t>0.43</t>
   </si>
   <si>
     <t>0.30</t>
   </si>
   <si>
-    <t>53.0</t>
-  </si>
-  <si>
     <t>94.1</t>
   </si>
   <si>
-    <t>77.7</t>
-  </si>
-  <si>
     <t>82.1</t>
   </si>
   <si>
-    <t>55.1</t>
-  </si>
-  <si>
     <t>99.9</t>
   </si>
   <si>
-    <t>88.6</t>
-  </si>
-  <si>
     <t>0.48</t>
   </si>
   <si>
     <t>0.32</t>
   </si>
   <si>
-    <t>58.9</t>
-  </si>
-  <si>
     <t>106.1</t>
   </si>
   <si>
-    <t>80.1</t>
-  </si>
-  <si>
     <t>91.2</t>
   </si>
   <si>
-    <t>54.8</t>
-  </si>
-  <si>
     <t>113.3</t>
   </si>
   <si>
-    <t>92.3</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
     <t>0.52</t>
   </si>
   <si>
     <t>0.42</t>
   </si>
   <si>
-    <t>63.8</t>
-  </si>
-  <si>
     <t>117.1</t>
   </si>
   <si>
-    <t>83.5</t>
-  </si>
-  <si>
     <t>100.8</t>
   </si>
   <si>
-    <t>57.9</t>
-  </si>
-  <si>
     <t>125.9</t>
   </si>
   <si>
-    <t>97.2</t>
-  </si>
-  <si>
     <t>0.56</t>
   </si>
   <si>
@@ -230,54 +140,30 @@
     <t>0.46</t>
   </si>
   <si>
-    <t>69.4</t>
-  </si>
-  <si>
     <t>127.3</t>
   </si>
   <si>
-    <t>83.3</t>
-  </si>
-  <si>
     <t>108.4</t>
   </si>
   <si>
-    <t>56.1</t>
-  </si>
-  <si>
     <t>137.7</t>
   </si>
   <si>
-    <t>98.3</t>
-  </si>
-  <si>
     <t>0.58</t>
   </si>
   <si>
     <t>0.50</t>
   </si>
   <si>
-    <t>74.9</t>
-  </si>
-  <si>
     <t>137.4</t>
   </si>
   <si>
-    <t>83.4</t>
-  </si>
-  <si>
     <t>116.4</t>
   </si>
   <si>
-    <t>55.4</t>
-  </si>
-  <si>
     <t>149.0</t>
   </si>
   <si>
-    <t>98.9</t>
-  </si>
-  <si>
     <t>0.61</t>
   </si>
   <si>
@@ -287,27 +173,15 @@
     <t>0.54</t>
   </si>
   <si>
-    <t>79.8</t>
-  </si>
-  <si>
     <t>146.3</t>
   </si>
   <si>
     <t>123.1</t>
   </si>
   <si>
-    <t>54.4</t>
-  </si>
-  <si>
     <t>159.1</t>
   </si>
   <si>
-    <t>99.5</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
     <t>0.63</t>
   </si>
   <si>
@@ -317,25 +191,13 @@
     <t>0.57</t>
   </si>
   <si>
-    <t>84.7</t>
-  </si>
-  <si>
     <t>154.7</t>
   </si>
   <si>
-    <t>82.7</t>
-  </si>
-  <si>
     <t>131.3</t>
   </si>
   <si>
-    <t>55.0</t>
-  </si>
-  <si>
     <t>168.4</t>
-  </si>
-  <si>
-    <t>98.8</t>
   </si>
 </sst>
 </file>
@@ -447,18 +309,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,24 +329,18 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -498,417 +354,260 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>0.04</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>0.05</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>0.06</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>0.07</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>0.08</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>0.09</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>0.11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>0.12</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>0.13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="H12" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.3" right="0.3" top="0.609722222222222" bottom="0.370138888888889" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;P</oddHeader>
     <oddFooter>&amp;C&amp;F</oddFooter>
